--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1898049.768208432</v>
+        <v>-1900910.582000724</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>263.7138800015063</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>92.07720442932818</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>7.155295256393265</v>
       </c>
     </row>
     <row r="3">
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>148.5568508170512</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>67.19744421940757</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>140.065011589196</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>65.88392285411851</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,67 +902,67 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G5" t="n">
+        <v>12.83417464571001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>115.3066195468971</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>251.1481678782825</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
       <c r="X5" t="n">
-        <v>122.6622323399416</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015061</v>
+        <v>219.4450108596164</v>
       </c>
     </row>
     <row r="6">
@@ -975,25 +975,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>119.7199708354744</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,13 +1026,13 @@
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>54.8405017486447</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -1075,7 +1075,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>202.121147849198</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>74.12473791630113</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.7416790765836</v>
+        <v>11.74167907658358</v>
       </c>
       <c r="H8" t="n">
-        <v>281.3182709889742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>73.1881841181501</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>127.8724504177536</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>207.5073162493723</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>38.52329259618014</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>135.438182924131</v>
       </c>
       <c r="H9" t="n">
-        <v>93.83392671696367</v>
+        <v>93.83392671696369</v>
       </c>
       <c r="I9" t="n">
-        <v>23.79630926906616</v>
+        <v>23.79630926906619</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.4848946346715</v>
+        <v>92.27393762994448</v>
       </c>
       <c r="U9" t="n">
         <v>225.8160311441933</v>
@@ -1275,7 +1275,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>105.5620281987522</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>115.0390534251128</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.025116863428</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>107.4132560413786</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>215.617423770836</v>
       </c>
       <c r="U10" t="n">
         <v>286.2319001807608</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1373,10 +1373,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>94.56071137691896</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>99.65140663107627</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890389</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>86.8894339777008</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1822,16 +1822,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>247.9508196413073</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>100.3801551430681</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2245,7 +2245,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>6.434538210426389</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>233.117719468068</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206824</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="24">
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>46.15319674220952</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="27">
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>100.2041656279965</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>230.7818758741516</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3190,7 +3190,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261734</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545294</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652578</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3481,16 +3481,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="38">
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652587</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808202</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3791,7 +3791,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>833.1938928750992</v>
+      </c>
+      <c r="C2" t="n">
+        <v>566.8162363079211</v>
+      </c>
+      <c r="D2" t="n">
+        <v>566.8162363079211</v>
+      </c>
+      <c r="E2" t="n">
+        <v>566.8162363079211</v>
+      </c>
+      <c r="F2" t="n">
+        <v>300.4385797407431</v>
+      </c>
+      <c r="G2" t="n">
         <v>287.4747669672986</v>
-      </c>
-      <c r="C2" t="n">
-        <v>287.4747669672986</v>
-      </c>
-      <c r="D2" t="n">
-        <v>287.4747669672986</v>
-      </c>
-      <c r="E2" t="n">
-        <v>287.4747669672986</v>
-      </c>
-      <c r="F2" t="n">
-        <v>21.0971104001205</v>
-      </c>
-      <c r="G2" t="n">
-        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
         <v>21.0971104001205</v>
@@ -4328,22 +4328,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917624</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515912</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030612</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991325</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.514968335842</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946894</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946894</v>
+        <v>840.421463841153</v>
       </c>
       <c r="U2" t="n">
-        <v>646.8597007358183</v>
+        <v>840.421463841153</v>
       </c>
       <c r="V2" t="n">
-        <v>553.8524235344767</v>
+        <v>840.421463841153</v>
       </c>
       <c r="W2" t="n">
-        <v>287.4747669672986</v>
+        <v>840.421463841153</v>
       </c>
       <c r="X2" t="n">
-        <v>287.4747669672986</v>
+        <v>840.421463841153</v>
       </c>
       <c r="Y2" t="n">
-        <v>287.4747669672986</v>
+        <v>833.1938928750992</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>167.6316683732355</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C3" t="n">
-        <v>167.6316683732355</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D3" t="n">
-        <v>167.6316683732355</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>167.6316683732355</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
         <v>21.0971104001205</v>
@@ -4410,16 +4410,16 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>192.1295835699348</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>338.8740072302314</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>529.4746963267552</v>
       </c>
       <c r="N3" t="n">
-        <v>694.2029851278864</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O3" t="n">
         <v>909.46721075609</v>
@@ -4437,22 +4437,22 @@
         <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>839.7105578442528</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>611.5747118810663</v>
+        <v>886.4622111450867</v>
       </c>
       <c r="V3" t="n">
-        <v>611.5747118810663</v>
+        <v>651.3101029133441</v>
       </c>
       <c r="W3" t="n">
-        <v>611.5747118810663</v>
+        <v>397.0727461851425</v>
       </c>
       <c r="X3" t="n">
-        <v>403.7232116755334</v>
+        <v>397.0727461851425</v>
       </c>
       <c r="Y3" t="n">
-        <v>335.8470053933036</v>
+        <v>189.3124474201885</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>331.1245950146483</v>
+        <v>677.8651099861061</v>
       </c>
       <c r="C4" t="n">
-        <v>331.1245950146483</v>
+        <v>508.9289270581992</v>
       </c>
       <c r="D4" t="n">
-        <v>331.1245950146483</v>
+        <v>358.8122876458634</v>
       </c>
       <c r="E4" t="n">
-        <v>183.2115014322552</v>
+        <v>358.8122876458634</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434482</v>
+        <v>358.8122876458634</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434482</v>
+        <v>190.2429270008669</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J4" t="n">
         <v>21.0971104001205</v>
@@ -4492,16 +4492,16 @@
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4513,25 +4513,25 @@
         <v>926.0629918407079</v>
       </c>
       <c r="S4" t="n">
-        <v>784.5831821546514</v>
+        <v>926.0629918407079</v>
       </c>
       <c r="T4" t="n">
-        <v>559.1141459126657</v>
+        <v>859.5135748163458</v>
       </c>
       <c r="U4" t="n">
-        <v>559.1141459126657</v>
+        <v>859.5135748163458</v>
       </c>
       <c r="V4" t="n">
-        <v>559.1141459126657</v>
+        <v>859.5135748163458</v>
       </c>
       <c r="W4" t="n">
-        <v>559.1141459126657</v>
+        <v>859.5135748163458</v>
       </c>
       <c r="X4" t="n">
-        <v>331.1245950146483</v>
+        <v>859.5135748163458</v>
       </c>
       <c r="Y4" t="n">
-        <v>331.1245950146483</v>
+        <v>859.5135748163458</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>410.8916005921556</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="C5" t="n">
-        <v>410.8916005921556</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="D5" t="n">
-        <v>410.8916005921556</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="E5" t="n">
-        <v>410.8916005921556</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="F5" t="n">
-        <v>403.9460998429521</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
@@ -4568,13 +4568,13 @@
         <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
         <v>704.5463761991316</v>
@@ -4598,19 +4598,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>801.1705019471533</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>801.1705019471533</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>801.1705019471533</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X5" t="n">
-        <v>677.2692571593335</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="Y5" t="n">
-        <v>410.8916005921556</v>
+        <v>566.8162363079209</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>470.3230768817238</v>
+        <v>407.9123684024154</v>
       </c>
       <c r="C6" t="n">
-        <v>349.3938134115477</v>
+        <v>407.9123684024154</v>
       </c>
       <c r="D6" t="n">
-        <v>349.3938134115477</v>
+        <v>258.9779587411641</v>
       </c>
       <c r="E6" t="n">
-        <v>349.3938134115477</v>
+        <v>258.9779587411641</v>
       </c>
       <c r="F6" t="n">
-        <v>202.8592554384327</v>
+        <v>258.9779587411641</v>
       </c>
       <c r="G6" t="n">
-        <v>65.46256898749988</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
@@ -4647,19 +4647,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957468</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302309</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4674,22 +4674,22 @@
         <v>906.2192216098642</v>
       </c>
       <c r="T6" t="n">
-        <v>906.2192216098642</v>
+        <v>850.824775399112</v>
       </c>
       <c r="U6" t="n">
-        <v>678.0833756466777</v>
+        <v>850.824775399112</v>
       </c>
       <c r="V6" t="n">
-        <v>678.0833756466777</v>
+        <v>615.6726671673694</v>
       </c>
       <c r="W6" t="n">
-        <v>678.0833756466777</v>
+        <v>615.6726671673694</v>
       </c>
       <c r="X6" t="n">
-        <v>678.0833756466777</v>
+        <v>615.6726671673694</v>
       </c>
       <c r="Y6" t="n">
-        <v>470.3230768817238</v>
+        <v>407.9123684024154</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>629.9001652572439</v>
+        <v>773.1950127738074</v>
       </c>
       <c r="C7" t="n">
-        <v>460.963982329337</v>
+        <v>773.1950127738074</v>
       </c>
       <c r="D7" t="n">
-        <v>460.963982329337</v>
+        <v>623.0783733614717</v>
       </c>
       <c r="E7" t="n">
-        <v>313.0508887469439</v>
+        <v>475.1652797790786</v>
       </c>
       <c r="F7" t="n">
-        <v>313.0508887469439</v>
+        <v>328.2753322811682</v>
       </c>
       <c r="G7" t="n">
-        <v>144.4815281019473</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="H7" t="n">
-        <v>144.4815281019473</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287944</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551007</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227044</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.469937207554</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4750,25 +4750,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="W7" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="X7" t="n">
-        <v>850.692744400774</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="Y7" t="n">
-        <v>629.9001652572439</v>
+        <v>773.1950127738074</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1600.452838448814</v>
+        <v>1582.37905722237</v>
       </c>
       <c r="C8" t="n">
-        <v>1231.490321508402</v>
+        <v>1213.416540281958</v>
       </c>
       <c r="D8" t="n">
-        <v>1231.490321508402</v>
+        <v>855.1508416752076</v>
       </c>
       <c r="E8" t="n">
-        <v>1231.490321508402</v>
+        <v>469.3625890769633</v>
       </c>
       <c r="F8" t="n">
-        <v>820.5044167187946</v>
+        <v>58.37668428735574</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6037307828515</v>
+        <v>46.51640239181678</v>
       </c>
       <c r="H8" t="n">
-        <v>120.4438610970189</v>
+        <v>46.51640239181678</v>
       </c>
       <c r="I8" t="n">
-        <v>46.51640239181681</v>
+        <v>46.51640239181678</v>
       </c>
       <c r="J8" t="n">
-        <v>166.4989367229157</v>
+        <v>166.4989367229155</v>
       </c>
       <c r="K8" t="n">
         <v>397.0601716677484</v>
@@ -4811,43 +4811,43 @@
         <v>719.993533093756</v>
       </c>
       <c r="M8" t="n">
-        <v>1110.988557721575</v>
+        <v>1110.988557721574</v>
       </c>
       <c r="N8" t="n">
-        <v>1512.924098999418</v>
+        <v>1512.924098999417</v>
       </c>
       <c r="O8" t="n">
-        <v>1879.125171830553</v>
+        <v>1879.125171830552</v>
       </c>
       <c r="P8" t="n">
-        <v>2157.168314271719</v>
+        <v>2157.168314271717</v>
       </c>
       <c r="Q8" t="n">
-        <v>2317.794388257579</v>
+        <v>2317.794388257577</v>
       </c>
       <c r="R8" t="n">
-        <v>2325.82011959084</v>
+        <v>2325.820119590839</v>
       </c>
       <c r="S8" t="n">
-        <v>2196.656028259776</v>
+        <v>2325.820119590839</v>
       </c>
       <c r="T8" t="n">
-        <v>1987.052678512935</v>
+        <v>2325.820119590839</v>
       </c>
       <c r="U8" t="n">
-        <v>1987.052678512935</v>
+        <v>2286.90770282702</v>
       </c>
       <c r="V8" t="n">
-        <v>1987.052678512935</v>
+        <v>1955.84481548345</v>
       </c>
       <c r="W8" t="n">
-        <v>1987.052678512935</v>
+        <v>1955.84481548345</v>
       </c>
       <c r="X8" t="n">
-        <v>1987.052678512935</v>
+        <v>1582.37905722237</v>
       </c>
       <c r="Y8" t="n">
-        <v>1987.052678512935</v>
+        <v>1582.37905722237</v>
       </c>
     </row>
     <row r="9">
@@ -4866,61 +4866,61 @@
         <v>607.9130809362064</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6756259307508</v>
+        <v>448.6756259307509</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1410679576358</v>
+        <v>302.1410679576359</v>
       </c>
       <c r="G9" t="n">
-        <v>165.3348225797257</v>
+        <v>165.3348225797258</v>
       </c>
       <c r="H9" t="n">
         <v>70.55307842117656</v>
       </c>
       <c r="I9" t="n">
-        <v>46.51640239181681</v>
+        <v>46.51640239181678</v>
       </c>
       <c r="J9" t="n">
-        <v>99.15933091977914</v>
+        <v>99.15933091977902</v>
       </c>
       <c r="K9" t="n">
-        <v>267.2893053412818</v>
+        <v>402.9718154420755</v>
       </c>
       <c r="L9" t="n">
-        <v>675.3658557344907</v>
+        <v>675.3658557344893</v>
       </c>
       <c r="M9" t="n">
-        <v>1012.593720931154</v>
+        <v>1012.593720931152</v>
       </c>
       <c r="N9" t="n">
-        <v>1373.15564918249</v>
+        <v>1373.155649182488</v>
       </c>
       <c r="O9" t="n">
-        <v>1680.779576843377</v>
+        <v>1680.779576843375</v>
       </c>
       <c r="P9" t="n">
-        <v>2223.61997410603</v>
+        <v>2223.619974106029</v>
       </c>
       <c r="Q9" t="n">
-        <v>2325.82011959084</v>
+        <v>2325.820119590839</v>
       </c>
       <c r="R9" t="n">
-        <v>2325.82011959084</v>
+        <v>2325.820119590839</v>
       </c>
       <c r="S9" t="n">
-        <v>2325.82011959084</v>
+        <v>2325.820119590839</v>
       </c>
       <c r="T9" t="n">
-        <v>2131.390933091172</v>
+        <v>2232.614121984834</v>
       </c>
       <c r="U9" t="n">
-        <v>1903.293931935422</v>
+        <v>2004.517120829084</v>
       </c>
       <c r="V9" t="n">
-        <v>1668.141823703679</v>
+        <v>1769.365012597341</v>
       </c>
       <c r="W9" t="n">
-        <v>1413.904466975477</v>
+        <v>1515.127655869139</v>
       </c>
       <c r="X9" t="n">
         <v>1307.276155663606</v>
@@ -4936,49 +4936,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>739.7888472875336</v>
+        <v>46.51640239181678</v>
       </c>
       <c r="C10" t="n">
-        <v>570.8526643596267</v>
+        <v>46.51640239181678</v>
       </c>
       <c r="D10" t="n">
-        <v>420.736024947291</v>
+        <v>46.51640239181678</v>
       </c>
       <c r="E10" t="n">
-        <v>420.736024947291</v>
+        <v>46.51640239181678</v>
       </c>
       <c r="F10" t="n">
-        <v>304.5349608815204</v>
+        <v>46.51640239181678</v>
       </c>
       <c r="G10" t="n">
-        <v>304.5349608815204</v>
+        <v>46.51640239181678</v>
       </c>
       <c r="H10" t="n">
-        <v>155.0146408174518</v>
+        <v>46.51640239181678</v>
       </c>
       <c r="I10" t="n">
-        <v>46.51640239181681</v>
+        <v>46.51640239181678</v>
       </c>
       <c r="J10" t="n">
-        <v>65.89540801909533</v>
+        <v>65.89540801909524</v>
       </c>
       <c r="K10" t="n">
-        <v>227.5779039736015</v>
+        <v>227.5779039736013</v>
       </c>
       <c r="L10" t="n">
-        <v>490.0022680632611</v>
+        <v>490.0022680632608</v>
       </c>
       <c r="M10" t="n">
-        <v>777.0810884794043</v>
+        <v>777.0810884794039</v>
       </c>
       <c r="N10" t="n">
         <v>1062.768432620618</v>
       </c>
       <c r="O10" t="n">
-        <v>1310.630639257114</v>
+        <v>1310.630639257113</v>
       </c>
       <c r="P10" t="n">
-        <v>1499.198894325116</v>
+        <v>1499.198894325115</v>
       </c>
       <c r="Q10" t="n">
         <v>1546.318699718229</v>
@@ -4990,22 +4990,22 @@
         <v>1546.318699718229</v>
       </c>
       <c r="T10" t="n">
-        <v>1546.318699718229</v>
+        <v>1328.52332217193</v>
       </c>
       <c r="U10" t="n">
-        <v>1257.195568222512</v>
+        <v>1039.400190676212</v>
       </c>
       <c r="V10" t="n">
-        <v>1257.195568222512</v>
+        <v>784.7157024703249</v>
       </c>
       <c r="W10" t="n">
-        <v>967.7783981855509</v>
+        <v>495.2985324333642</v>
       </c>
       <c r="X10" t="n">
-        <v>739.7888472875336</v>
+        <v>267.3089815353469</v>
       </c>
       <c r="Y10" t="n">
-        <v>739.7888472875336</v>
+        <v>46.51640239181678</v>
       </c>
     </row>
     <row r="11">
@@ -5021,7 +5021,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5036,25 +5036,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5121,19 +5121,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
         <v>2283.159972732779</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>782.8410298377091</v>
+        <v>1057.613315601761</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>888.6771326738542</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>738.5604932615184</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>590.6473996791253</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>443.7574521812149</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>276.5613528960949</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058935</v>
+        <v>1460.054359575531</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154051</v>
+        <v>1239.261780432001</v>
       </c>
     </row>
     <row r="14">
@@ -5267,10 +5267,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5279,16 +5279,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5315,10 +5315,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,25 +5358,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>699.73118040114</v>
+        <v>962.6357307816187</v>
       </c>
       <c r="C16" t="n">
-        <v>699.73118040114</v>
+        <v>793.6995478537118</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888043</v>
+        <v>643.582908441376</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>495.6698148589829</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>348.7798673610725</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>181.5837680759525</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5470,16 +5470,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1437.930480479648</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1148.513310442687</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>920.5237595446702</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>699.73118040114</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
         <v>2129.438138565707</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1053.171308869725</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>884.2351259418183</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>734.1184865294825</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>586.2053929470894</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1683.601903741512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1455.612352843495</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1234.819773699965</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,7 +5747,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
         <v>378.192580311172</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683105</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W22" t="n">
-        <v>1198.22892174168</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X22" t="n">
-        <v>1198.22892174168</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5978,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>700.7543264856228</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
         <v>402.7245934908939</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.297989183966</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2333.297989183966</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2044.222762528164</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,19 +6212,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>808.8888553856862</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>639.9526724577793</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>489.8360330454435</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>341.9229394630504</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>195.03299196514</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>195.03299196514</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6452,19 +6452,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6503,7 +6503,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6698,19 +6698,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311316</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6877,22 +6877,22 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6917,10 +6917,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319319</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384017</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7108,37 +7108,37 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7257,22 +7257,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
@@ -7333,13 +7333,13 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
@@ -7354,25 +7354,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7391,10 +7391,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7403,25 +7403,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,13 +7430,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,10 +7482,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7497,16 +7497,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
@@ -7582,19 +7582,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7731,22 +7731,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319316</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.551295565681</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150015</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942647</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580106</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345468</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954138</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380717</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311311</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979285</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>97.32166909127284</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,10 +8067,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>51.53815565544053</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>45.78351343583205</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8143,7 +8143,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094458</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
         <v>171.8177168444618</v>
@@ -8155,7 +8155,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>65.34295837775174</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>97.32166909127218</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>137.0530405058524</v>
       </c>
       <c r="L9" t="n">
-        <v>137.0530405058535</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>27.38164655864783</v>
+        <v>27.38164655864787</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>310.501294726435</v>
+        <v>101.5590117695013</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>143.1621657402052</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50.47975262776173</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>235.6750540408067</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590676</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>352.2305129897726</v>
       </c>
     </row>
     <row r="3">
@@ -22708,7 +22708,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>85.27126880501834</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>40.64330621514759</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,16 +23464,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>53.40527886852308</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>4.186823682520696</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>45.04089287986318</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>210.9709121168619</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>53.40527886852297</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>134.8730892594351</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>40.0905472182274</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>55.74112246243945</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>-5.988543122513853e-13</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>84626.07044716086</v>
+        <v>84626.07044716082</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26320,19 +26320,19 @@
         <v>102630.2212330354</v>
       </c>
       <c r="E2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="F2" t="n">
         <v>100893.3249612507</v>
       </c>
       <c r="G2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="H2" t="n">
         <v>100893.3249612508</v>
       </c>
       <c r="I2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="J2" t="n">
         <v>100893.3249612507</v>
@@ -26341,7 +26341,7 @@
         <v>100893.3249612508</v>
       </c>
       <c r="L2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330356</v>
       </c>
       <c r="M2" t="n">
         <v>102630.2212330355</v>
@@ -26350,10 +26350,10 @@
         <v>102630.2212330355</v>
       </c>
       <c r="O2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="P2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>331437.5228512977</v>
+        <v>331437.5228512973</v>
       </c>
       <c r="E3" t="n">
-        <v>563905.7843424117</v>
+        <v>563905.7843424124</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.1544191141</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>99845.14336201196</v>
+        <v>99845.14336201176</v>
       </c>
       <c r="M3" t="n">
         <v>147342.6769569559</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>249437.9663307044</v>
       </c>
       <c r="D4" t="n">
-        <v>154923.9080077263</v>
+        <v>154923.9080077265</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26436,28 +26436,28 @@
         <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768921</v>
+        <v>9947.144321768934</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.14432176895</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768945</v>
       </c>
       <c r="L4" t="n">
+        <v>17938.0035848624</v>
+      </c>
+      <c r="M4" t="n">
+        <v>17938.00358486237</v>
+      </c>
+      <c r="N4" t="n">
+        <v>17938.00358486235</v>
+      </c>
+      <c r="O4" t="n">
+        <v>17938.0035848624</v>
+      </c>
+      <c r="P4" t="n">
         <v>17938.00358486239</v>
-      </c>
-      <c r="M4" t="n">
-        <v>17938.0035848624</v>
-      </c>
-      <c r="N4" t="n">
-        <v>17938.00358486237</v>
-      </c>
-      <c r="O4" t="n">
-        <v>17938.00358486238</v>
-      </c>
-      <c r="P4" t="n">
-        <v>17938.00358486238</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>88290.79546543579</v>
+        <v>88290.79546543575</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-825738.2677418655</v>
+        <v>-826098.3507575828</v>
       </c>
       <c r="C6" t="n">
         <v>-209855.5483019352</v>
       </c>
       <c r="D6" t="n">
-        <v>-472022.0050914244</v>
+        <v>-472022.0050914241</v>
       </c>
       <c r="E6" t="n">
-        <v>-574082.1335268369</v>
+        <v>-574116.8714522732</v>
       </c>
       <c r="F6" t="n">
-        <v>-10176.34918442526</v>
+        <v>-10211.08710986095</v>
       </c>
       <c r="G6" t="n">
-        <v>-10176.34918442526</v>
+        <v>-10211.08710986091</v>
       </c>
       <c r="H6" t="n">
-        <v>-10176.34918442523</v>
+        <v>-10211.08710986092</v>
       </c>
       <c r="I6" t="n">
-        <v>-10176.34918442529</v>
+        <v>-10211.08710986102</v>
       </c>
       <c r="J6" t="n">
-        <v>-79175.50360353933</v>
+        <v>-79210.24152897512</v>
       </c>
       <c r="K6" t="n">
-        <v>-10176.34918442524</v>
+        <v>-10211.08710986098</v>
       </c>
       <c r="L6" t="n">
-        <v>-118317.0415677543</v>
+        <v>-118317.041567754</v>
       </c>
       <c r="M6" t="n">
         <v>-165814.5751626982</v>
@@ -26561,7 +26561,7 @@
         <v>-18471.89820574236</v>
       </c>
       <c r="P6" t="n">
-        <v>-18471.89820574237</v>
+        <v>-18471.8982057423</v>
       </c>
     </row>
   </sheetData>
@@ -26704,25 +26704,25 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="L2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203967</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203972</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203971</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>885.8132865896796</v>
+        <v>885.8132865896793</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>581.4550298977101</v>
+        <v>581.4550298977097</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>271.7582728202012</v>
+        <v>271.758272820201</v>
       </c>
       <c r="E3" t="n">
-        <v>482.1622137519942</v>
+        <v>482.1622137519947</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>317.741149896204</v>
+        <v>317.7411498962035</v>
       </c>
       <c r="E4" t="n">
-        <v>591.2532582019383</v>
+        <v>591.2532582019387</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.741149896204</v>
+        <v>317.7411498962035</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019383</v>
+        <v>591.2532582019387</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.741149896204</v>
+        <v>317.7411498962035</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019383</v>
+        <v>591.2532582019387</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>54.77159704457256</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>26.85213040988771</v>
       </c>
     </row>
     <row r="3">
@@ -27467,16 +27467,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,22 +27509,22 @@
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>77.29763668650347</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>138.4852515578968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
@@ -27585,10 +27585,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>64.65415265439776</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>157.3304230254473</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
+        <v>143.1621657402053</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>149.1202946442039</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X5" t="n">
-        <v>247.0688683385275</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545474</v>
+        <v>166.7929277964372</v>
       </c>
     </row>
     <row r="6">
@@ -27695,25 +27695,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>52.98852815284138</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>140.0004858362321</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27795,7 +27795,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>23.58850753983913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>144.4599154357937</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>21.68684139297761</v>
+        <v>303.0051123819519</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>73.18818411815016</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>127.8724504177536</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.5073162493723</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0607682327524</v>
+        <v>212.5374756365722</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27983,7 +27983,7 @@
         <v>136.2924232858445</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>100.210957004727</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -27995,7 +27995,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>100.2109570047253</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>30.38199459781842</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3936111367397</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.025116863428</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>107.4132560413786</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,16 +28059,16 @@
         <v>105.4699075169637</v>
       </c>
       <c r="S10" t="n">
-        <v>196.1788263911949</v>
+        <v>196.178826391195</v>
       </c>
       <c r="T10" t="n">
-        <v>221.1204706627545</v>
+        <v>5.503046891918416</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28311,7 +28311,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="D23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
     </row>
     <row r="24">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="27">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29560,22 +29560,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="41">
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.561058438551473</v>
+        <v>3.561058438551472</v>
       </c>
       <c r="H8" t="n">
-        <v>36.46968973381528</v>
+        <v>36.46968973381527</v>
       </c>
       <c r="I8" t="n">
         <v>137.2877054522558</v>
       </c>
       <c r="J8" t="n">
-        <v>302.2403836490084</v>
+        <v>302.2403836490083</v>
       </c>
       <c r="K8" t="n">
-        <v>452.9799873528923</v>
+        <v>452.9799873528921</v>
       </c>
       <c r="L8" t="n">
-        <v>561.9617295417121</v>
+        <v>561.9617295417119</v>
       </c>
       <c r="M8" t="n">
-        <v>625.2907025483019</v>
+        <v>625.2907025483015</v>
       </c>
       <c r="N8" t="n">
-        <v>635.4085598368363</v>
+        <v>635.4085598368359</v>
       </c>
       <c r="O8" t="n">
-        <v>599.99828498849</v>
+        <v>599.9982849884898</v>
       </c>
       <c r="P8" t="n">
-        <v>512.0846547867504</v>
+        <v>512.0846547867502</v>
       </c>
       <c r="Q8" t="n">
-        <v>384.5542494561257</v>
+        <v>384.5542494561255</v>
       </c>
       <c r="R8" t="n">
-        <v>223.6923371406592</v>
+        <v>223.6923371406591</v>
       </c>
       <c r="S8" t="n">
-        <v>81.14761916849177</v>
+        <v>81.14761916849174</v>
       </c>
       <c r="T8" t="n">
         <v>15.58853331475908</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2848846750841178</v>
+        <v>0.2848846750841177</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.905334239079688</v>
+        <v>1.905334239079687</v>
       </c>
       <c r="H9" t="n">
-        <v>18.40151751953278</v>
+        <v>18.40151751953277</v>
       </c>
       <c r="I9" t="n">
-        <v>65.60032358234892</v>
+        <v>65.60032358234889</v>
       </c>
       <c r="J9" t="n">
-        <v>180.0123019474367</v>
+        <v>180.0123019474366</v>
       </c>
       <c r="K9" t="n">
-        <v>307.6696959657758</v>
+        <v>307.6696959657757</v>
       </c>
       <c r="L9" t="n">
-        <v>413.6998750247367</v>
+        <v>413.6998750247366</v>
       </c>
       <c r="M9" t="n">
-        <v>482.7682411913753</v>
+        <v>482.7682411913751</v>
       </c>
       <c r="N9" t="n">
-        <v>495.5456800139756</v>
+        <v>495.5456800139754</v>
       </c>
       <c r="O9" t="n">
-        <v>453.3274845059467</v>
+        <v>453.3274845059465</v>
       </c>
       <c r="P9" t="n">
-        <v>363.8352723730328</v>
+        <v>363.8352723730326</v>
       </c>
       <c r="Q9" t="n">
-        <v>243.2142442726985</v>
+        <v>243.2142442726984</v>
       </c>
       <c r="R9" t="n">
         <v>118.2978574053161</v>
       </c>
       <c r="S9" t="n">
-        <v>35.39074781799331</v>
+        <v>35.39074781799329</v>
       </c>
       <c r="T9" t="n">
-        <v>7.679834060150144</v>
+        <v>7.679834060150141</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1253509367815585</v>
+        <v>0.1253509367815584</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.597368221719094</v>
+        <v>1.597368221719093</v>
       </c>
       <c r="H10" t="n">
         <v>14.20205564401159</v>
       </c>
       <c r="I10" t="n">
-        <v>48.03721888587968</v>
+        <v>48.03721888587967</v>
       </c>
       <c r="J10" t="n">
-        <v>112.93393327554</v>
+        <v>112.9339332755399</v>
       </c>
       <c r="K10" t="n">
-        <v>185.585144305182</v>
+        <v>185.5851443051819</v>
       </c>
       <c r="L10" t="n">
-        <v>237.4850899817643</v>
+        <v>237.4850899817642</v>
       </c>
       <c r="M10" t="n">
-        <v>250.3947295191122</v>
+        <v>250.394729519112</v>
       </c>
       <c r="N10" t="n">
         <v>244.4409025108866</v>
       </c>
       <c r="O10" t="n">
-        <v>225.7807373753499</v>
+        <v>225.7807373753498</v>
       </c>
       <c r="P10" t="n">
-        <v>193.1944256522802</v>
+        <v>193.1944256522801</v>
       </c>
       <c r="Q10" t="n">
         <v>133.7578062750416</v>
       </c>
       <c r="R10" t="n">
-        <v>71.8234838602058</v>
+        <v>71.82348386020577</v>
       </c>
       <c r="S10" t="n">
-        <v>27.83777164577729</v>
+        <v>27.83777164577728</v>
       </c>
       <c r="T10" t="n">
-        <v>6.825118765527037</v>
+        <v>6.825118765527034</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08712917573013251</v>
+        <v>0.08712917573013247</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753698</v>
       </c>
       <c r="N12" t="n">
-        <v>530.4152909475304</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,28 +32078,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>556.7959610899863</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>285.8867128925984</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,25 +32309,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>398.1179220955534</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32558,13 +32558,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>301.1823051500301</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,16 +32798,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>695.222208616788</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N27" t="n">
-        <v>336.3457189021236</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33740,25 +33740,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>499.3768644016574</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33977,25 +33977,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>270.9716933356906</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34217,19 +34217,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>208.6096528357818</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34451,25 +34451,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>172.7600739089033</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>263.7138800015063</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>217.4386117456602</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34863,7 +34863,7 @@
         <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458918</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
         <v>213.581156752698</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827497113</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>245.5483596572285</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35030,10 +35030,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250133</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>121.1944791223221</v>
+        <v>121.194479122322</v>
       </c>
       <c r="K8" t="n">
-        <v>232.8901363079117</v>
+        <v>232.8901363079116</v>
       </c>
       <c r="L8" t="n">
-        <v>326.1953145717249</v>
+        <v>326.1953145717246</v>
       </c>
       <c r="M8" t="n">
-        <v>394.9444693210291</v>
+        <v>394.9444693210288</v>
       </c>
       <c r="N8" t="n">
-        <v>405.9954962402454</v>
+        <v>405.995496240245</v>
       </c>
       <c r="O8" t="n">
-        <v>369.9000735668033</v>
+        <v>369.900073566803</v>
       </c>
       <c r="P8" t="n">
-        <v>280.8516590314809</v>
+        <v>280.8516590314807</v>
       </c>
       <c r="Q8" t="n">
-        <v>162.2485595816762</v>
+        <v>162.248559581676</v>
       </c>
       <c r="R8" t="n">
-        <v>8.106799326527039</v>
+        <v>8.106799326526954</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>53.17467528077003</v>
+        <v>53.17467528076995</v>
       </c>
       <c r="K9" t="n">
-        <v>169.8282569914168</v>
+        <v>306.8812974972691</v>
       </c>
       <c r="L9" t="n">
-        <v>412.1985357507161</v>
+        <v>275.1454952448624</v>
       </c>
       <c r="M9" t="n">
-        <v>340.634207269357</v>
+        <v>340.6342072693568</v>
       </c>
       <c r="N9" t="n">
-        <v>364.2039679306423</v>
+        <v>364.2039679306421</v>
       </c>
       <c r="O9" t="n">
-        <v>310.7312400615023</v>
+        <v>310.7312400615021</v>
       </c>
       <c r="P9" t="n">
         <v>548.3236335986396</v>
@@ -35328,16 +35328,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>19.57475315886718</v>
+        <v>19.57475315886714</v>
       </c>
       <c r="K10" t="n">
         <v>163.3156524792991</v>
       </c>
       <c r="L10" t="n">
-        <v>265.0751152420804</v>
+        <v>265.0751152420803</v>
       </c>
       <c r="M10" t="n">
-        <v>289.9786064809527</v>
+        <v>289.9786064809526</v>
       </c>
       <c r="N10" t="n">
         <v>288.5730748901152</v>
@@ -35346,10 +35346,10 @@
         <v>250.3658652893895</v>
       </c>
       <c r="P10" t="n">
-        <v>190.4729849171737</v>
+        <v>190.4729849171736</v>
       </c>
       <c r="Q10" t="n">
-        <v>47.59576302334723</v>
+        <v>47.59576302334717</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="N12" t="n">
-        <v>399.073578864197</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>425.454249006653</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>151.9123054782682</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>259.5635423156792</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36206,13 +36206,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>159.0482712280117</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,16 +36446,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>563.8804965334547</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N27" t="n">
-        <v>205.0040068187903</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36917,22 +36917,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>368.035152318324</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>132.4173135558164</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37716,10 +37716,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37865,19 +37865,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>66.47561891376348</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
